--- a/working_dir/Debarment_Test_4Dec19.xlsx
+++ b/working_dir/Debarment_Test_4Dec19.xlsx
@@ -334,7 +334,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="22.1796875" customWidth="1" min="1" max="1"/>
     <col width="23.54296875" customWidth="1" min="2" max="4"/>
@@ -398,10 +398,10 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43804.43494305822</v>
+        <v>43804.62040354496</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44170.43494305822</v>
+        <v>44170.62040354496</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -436,10 +436,10 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>43804.43498503239</v>
+        <v>43804.62042361854</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44170.43498503239</v>
+        <v>44170.62042361854</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -474,10 +474,10 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>43804.4350212731</v>
+        <v>43804.62044560831</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44170.4350212731</v>
+        <v>44170.62044560831</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -512,10 +512,10 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>43804.43506084823</v>
+        <v>43804.62046317705</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44170.43506084823</v>
+        <v>44170.62046317705</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>43804.43509234616</v>
+        <v>43804.62048405896</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44170.43509234616</v>
+        <v>44170.62048405896</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>43804.43512373529</v>
+        <v>43804.62050764143</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44170.43512373529</v>
+        <v>44170.62050764143</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>43804.4351536918</v>
+        <v>43804.62053384448</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44170.4351536918</v>
+        <v>44170.62053384448</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -664,10 +664,10 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>43804.43518522081</v>
+        <v>43804.62055432207</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44170.43518522081</v>
+        <v>44170.62055432207</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>43804.43521333184</v>
+        <v>43804.62057781933</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44170.43521333184</v>
+        <v>44170.62057781933</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>43804.43524421235</v>
+        <v>43804.62059922087</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44170.43524421235</v>
+        <v>44170.62059922087</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -778,10 +778,10 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>43804.43527547179</v>
+        <v>43804.62062163772</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44170.43527547179</v>
+        <v>44170.62062163772</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>43804.43530666122</v>
+        <v>43804.62064129587</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44170.43530666122</v>
+        <v>44170.62064129587</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -854,10 +854,10 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>43804.43533704771</v>
+        <v>43804.62067017692</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44170.43533704771</v>
+        <v>44170.62067017692</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>43804.43536957374</v>
+        <v>43804.62068978882</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44170.43536957374</v>
+        <v>44170.62068978882</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>43804.43540154918</v>
+        <v>43804.62071159387</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44170.43540154918</v>
+        <v>44170.62071159387</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>43804.43543137662</v>
+        <v>43804.62073176025</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44170.43543137662</v>
+        <v>44170.62073176025</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>43804.43546021391</v>
+        <v>43804.62076025998</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44170.43546021391</v>
+        <v>44170.62076025998</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>43804.43548980402</v>
+        <v>43804.6207817073</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44170.43548980402</v>
+        <v>44170.6207817073</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1082,10 +1082,10 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>43804.43552076308</v>
+        <v>43804.62080901489</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44170.43552076308</v>
+        <v>44170.62080901489</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1120,10 +1120,10 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>43804.43555379265</v>
+        <v>43804.62082906438</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44170.43555379265</v>
+        <v>44170.62082906438</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F2"/>
+  <dimension ref="A2:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
@@ -1259,6 +1259,38 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Edwards</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Keith</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2019-12-05 14:53:53.686462</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2020-12-05 14:53:53.686462</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MS Center of NE New York</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Latham, NY</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
